--- a/biology/Zoologie/Gravelyia_excavatus/Gravelyia_excavatus.xlsx
+++ b/biology/Zoologie/Gravelyia_excavatus/Gravelyia_excavatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gravelyia excavatus est une espèce d'araignées mygalomorphes de la famille des Nemesiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gravelyia excavatus est une espèce d'araignées mygalomorphes de la famille des Nemesiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Odisha en Inde[1],[2]. Elle se rencontre vers l'île Barkuda et Balasore.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Odisha en Inde,. Elle se rencontre vers l'île Barkuda et Balasore.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 10 à 11,5 mm et les femelles jusqu'à 16 mm[3].
-La carapace de la femelle décrite par Mirza et Mondal en 2018 mesure 4,53 mm de long sur 3,02 mm et l'abdomen 7,75 mm de long sur 4,36 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 10 à 11,5 mm et les femelles jusqu'à 16 mm.
+La carapace de la femelle décrite par Mirza et Mondal en 2018 mesure 4,53 mm de long sur 3,02 mm et l'abdomen 7,75 mm de long sur 4,36 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Damarchus excavatus par Gravely en 1921. Elle est placée dans le genre Gravelyia par Mirza et Mondal en 2018[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Damarchus excavatus par Gravely en 1921. Elle est placée dans le genre Gravelyia par Mirza et Mondal en 2018.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gravely, 1921 : The spiders and scorpions of Barkuda Island. Records of the Indian Museum, vol. 22, p. 399-421 (texte intégral).</t>
         </is>
